--- a/municipal/ENG/byOrganization-legalForms/Number of registered entities by organizational-legal form/Samegrelo-Zemo Svaneti/Chkhorotsku.xlsx
+++ b/municipal/ENG/byOrganization-legalForms/Number of registered entities by organizational-legal form/Samegrelo-Zemo Svaneti/Chkhorotsku.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\მუნიციპალიტეტები\ბიზნეს რეგისტრი\ENG\Number of registered entities by organizational-legal form\Samegrelo-Zemo Svaneti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Number of registered entities by organizational-legal form\-Samegrelo-Zemo Svaneti\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E034E83-19FE-4036-A166-631675CC216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chkhorotsku" sheetId="1" r:id="rId1"/>
@@ -77,12 +78,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="###0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +125,25 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -173,37 +193,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -212,12 +201,41 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
-      </right>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -225,35 +243,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,38 +557,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="12.7109375" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="31.140625" style="4" customWidth="1"/>
+    <col min="2" max="13" width="8.7109375" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,689 +603,770 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <v>2010</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <v>2011</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <v>2012</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <v>2013</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="8">
         <v>2014</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="8">
         <v>2015</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="8">
         <v>2016</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="8">
         <v>2017</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="8">
         <v>2018</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="8">
         <v>2019</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="8">
         <v>2020</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="N3" s="8">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
-        <v>1688</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1949</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2084</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2328</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2568</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2695</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2830</v>
-      </c>
-      <c r="I4" s="8">
-        <v>3002</v>
-      </c>
-      <c r="J4" s="8">
-        <v>3163</v>
-      </c>
-      <c r="K4" s="8">
-        <v>3363</v>
-      </c>
-      <c r="L4" s="8">
-        <v>3493</v>
-      </c>
-      <c r="M4" s="8">
-        <v>3624</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="9">
+        <v>1685</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1945</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2079</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2324</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2560</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2691</v>
+      </c>
+      <c r="H4" s="10">
+        <v>2826</v>
+      </c>
+      <c r="I4" s="10">
+        <v>2994</v>
+      </c>
+      <c r="J4" s="10">
+        <v>3156</v>
+      </c>
+      <c r="K4" s="10">
+        <v>3354</v>
+      </c>
+      <c r="L4" s="10">
+        <v>3485</v>
+      </c>
+      <c r="M4" s="10">
+        <v>3615</v>
+      </c>
+      <c r="N4" s="10">
+        <v>3782</v>
+      </c>
+      <c r="O4" s="10">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="11">
         <v>120</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="17">
         <v>132</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="17">
         <v>146</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="17">
         <v>166</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="17">
         <v>205</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="17">
         <v>234</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="17">
         <v>265</v>
       </c>
-      <c r="I5" s="9">
-        <v>301</v>
-      </c>
-      <c r="J5" s="9">
-        <v>333</v>
-      </c>
-      <c r="K5" s="9">
-        <v>373</v>
-      </c>
-      <c r="L5" s="9">
-        <v>401</v>
-      </c>
-      <c r="M5" s="9">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="I5" s="17">
+        <v>298</v>
+      </c>
+      <c r="J5" s="17">
+        <v>331</v>
+      </c>
+      <c r="K5" s="17">
+        <v>371</v>
+      </c>
+      <c r="L5" s="17">
+        <v>399</v>
+      </c>
+      <c r="M5" s="17">
+        <v>425</v>
+      </c>
+      <c r="N5" s="17">
+        <v>456</v>
+      </c>
+      <c r="O5" s="17">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="11">
         <v>14</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="17">
         <v>14</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="17">
         <v>14</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="17">
         <v>14</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="17">
         <v>14</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="17">
         <v>13</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="17">
         <v>12</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="17">
         <v>12</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="17">
         <v>12</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="17">
         <v>12</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="17">
         <v>12</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="17">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9">
-        <v>5</v>
-      </c>
-      <c r="D7" s="9">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5</v>
-      </c>
-      <c r="H7" s="9">
-        <v>5</v>
-      </c>
-      <c r="I7" s="9">
-        <v>5</v>
-      </c>
-      <c r="J7" s="9">
-        <v>5</v>
-      </c>
-      <c r="K7" s="9">
-        <v>5</v>
-      </c>
-      <c r="L7" s="9">
-        <v>5</v>
-      </c>
-      <c r="M7" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9">
-        <v>46</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="N6" s="17">
+        <v>12</v>
+      </c>
+      <c r="O6" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17">
+        <v>5</v>
+      </c>
+      <c r="D7" s="17">
+        <v>5</v>
+      </c>
+      <c r="E7" s="17">
+        <v>5</v>
+      </c>
+      <c r="F7" s="17">
+        <v>5</v>
+      </c>
+      <c r="G7" s="17">
+        <v>5</v>
+      </c>
+      <c r="H7" s="17">
+        <v>5</v>
+      </c>
+      <c r="I7" s="17">
+        <v>5</v>
+      </c>
+      <c r="J7" s="17">
+        <v>5</v>
+      </c>
+      <c r="K7" s="17">
+        <v>5</v>
+      </c>
+      <c r="L7" s="17">
+        <v>5</v>
+      </c>
+      <c r="M7" s="17">
+        <v>5</v>
+      </c>
+      <c r="N7" s="17">
+        <v>5</v>
+      </c>
+      <c r="O7" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>47</v>
+      </c>
+      <c r="C8" s="17">
         <v>45</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="17">
         <v>45</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="17">
         <v>48</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="17">
         <v>52</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="17">
         <v>59</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="17">
         <v>62</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="17">
         <v>65</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="17">
         <v>67</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="17">
         <v>68</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="17">
         <v>69</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="17">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="N8" s="17">
+        <v>69</v>
+      </c>
+      <c r="O8" s="17">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
-        <v>1394</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1647</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1767</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1980</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2170</v>
-      </c>
-      <c r="G9" s="9">
-        <v>2244</v>
-      </c>
-      <c r="H9" s="9">
-        <v>2340</v>
-      </c>
-      <c r="I9" s="9">
-        <v>2455</v>
-      </c>
-      <c r="J9" s="9">
-        <v>2582</v>
-      </c>
-      <c r="K9" s="9">
-        <v>2737</v>
-      </c>
-      <c r="L9" s="9">
-        <v>2835</v>
-      </c>
-      <c r="M9" s="9">
-        <v>2937</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="11">
+        <v>1391</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1643</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1762</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1976</v>
+      </c>
+      <c r="F9" s="17">
+        <v>2162</v>
+      </c>
+      <c r="G9" s="17">
+        <v>2240</v>
+      </c>
+      <c r="H9" s="17">
+        <v>2336</v>
+      </c>
+      <c r="I9" s="17">
+        <v>2450</v>
+      </c>
+      <c r="J9" s="17">
+        <v>2577</v>
+      </c>
+      <c r="K9" s="17">
+        <v>2730</v>
+      </c>
+      <c r="L9" s="17">
+        <v>2829</v>
+      </c>
+      <c r="M9" s="17">
+        <v>2930</v>
+      </c>
+      <c r="N9" s="17">
+        <v>3061</v>
+      </c>
+      <c r="O9" s="17">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9">
-        <v>6</v>
-      </c>
-      <c r="E10" s="9">
-        <v>6</v>
-      </c>
-      <c r="F10" s="9">
-        <v>6</v>
-      </c>
-      <c r="G10" s="9">
-        <v>6</v>
-      </c>
-      <c r="H10" s="9">
-        <v>6</v>
-      </c>
-      <c r="I10" s="9">
-        <v>6</v>
-      </c>
-      <c r="J10" s="9">
-        <v>6</v>
-      </c>
-      <c r="K10" s="9">
-        <v>6</v>
-      </c>
-      <c r="L10" s="9">
-        <v>6</v>
-      </c>
-      <c r="M10" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="11">
+        <v>6</v>
+      </c>
+      <c r="C10" s="17">
+        <v>6</v>
+      </c>
+      <c r="D10" s="17">
+        <v>6</v>
+      </c>
+      <c r="E10" s="17">
+        <v>6</v>
+      </c>
+      <c r="F10" s="17">
+        <v>6</v>
+      </c>
+      <c r="G10" s="17">
+        <v>6</v>
+      </c>
+      <c r="H10" s="17">
+        <v>6</v>
+      </c>
+      <c r="I10" s="17">
+        <v>6</v>
+      </c>
+      <c r="J10" s="17">
+        <v>6</v>
+      </c>
+      <c r="K10" s="17">
+        <v>6</v>
+      </c>
+      <c r="L10" s="17">
+        <v>6</v>
+      </c>
+      <c r="M10" s="17">
+        <v>6</v>
+      </c>
+      <c r="N10" s="17">
+        <v>6</v>
+      </c>
+      <c r="O10" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0</v>
+      </c>
+      <c r="N11" s="17">
+        <v>0</v>
+      </c>
+      <c r="O11" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9">
-        <v>77</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="11">
+        <v>76</v>
+      </c>
+      <c r="C12" s="17">
         <v>75</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="17">
         <v>76</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="17">
         <v>84</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="17">
         <v>91</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="17">
         <v>99</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="17">
         <v>101</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="17">
         <v>113</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="17">
         <v>113</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="17">
         <v>117</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="17">
         <v>120</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="17">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="N12" s="17">
+        <v>128</v>
+      </c>
+      <c r="O12" s="17">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="11">
         <v>24</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="17">
         <v>23</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="17">
         <v>23</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="17">
         <v>23</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="17">
         <v>23</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="17">
         <v>23</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="17">
         <v>23</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="17">
         <v>23</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="17">
         <v>23</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="17">
         <v>23</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="17">
         <v>23</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="17">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="N13" s="17">
+        <v>23</v>
+      </c>
+      <c r="O13" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
-      <c r="K14" s="9">
-        <v>1</v>
-      </c>
-      <c r="L14" s="9">
-        <v>1</v>
-      </c>
-      <c r="M14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="J14" s="17">
+        <v>1</v>
+      </c>
+      <c r="K14" s="17">
+        <v>1</v>
+      </c>
+      <c r="L14" s="17">
+        <v>1</v>
+      </c>
+      <c r="M14" s="17">
+        <v>1</v>
+      </c>
+      <c r="N14" s="17">
+        <v>1</v>
+      </c>
+      <c r="O14" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
         <v>10</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="17">
         <v>14</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="17">
         <v>20</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="17">
         <v>20</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="17">
         <v>20</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="17">
         <v>20</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="17">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="N15" s="17">
+        <v>20</v>
+      </c>
+      <c r="O15" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="12">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1</v>
-      </c>
-      <c r="G16" s="12">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12">
-        <v>1</v>
-      </c>
-      <c r="J16" s="12">
-        <v>1</v>
-      </c>
-      <c r="K16" s="12">
-        <v>1</v>
-      </c>
-      <c r="L16" s="12">
-        <v>1</v>
-      </c>
-      <c r="M16" s="12">
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1</v>
+      </c>
+      <c r="J16" s="13">
+        <v>1</v>
+      </c>
+      <c r="K16" s="13">
+        <v>1</v>
+      </c>
+      <c r="L16" s="13">
+        <v>1</v>
+      </c>
+      <c r="M16" s="13">
+        <v>1</v>
+      </c>
+      <c r="N16" s="13">
+        <v>1</v>
+      </c>
+      <c r="O16" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>